--- a/Jvedio-WPF/Jvedio.Test/测试记录/Jvedio-5.4.xlsx
+++ b/Jvedio-WPF/Jvedio.Test/测试记录/Jvedio-5.4.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="用户测试用例" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">用户测试用例!$A$1:$H$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">用户测试用例!$A$1:$H$34</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="140">
   <si>
     <t>用例编号</t>
   </si>
@@ -57,9 +57,6 @@
     <t>1.Jvedio 正常迁移了数据</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>扫描电影</t>
   </si>
   <si>
@@ -68,7 +65,9 @@
   <si>
     <t>1.重新生成 Jvedio
 2.新建库【测试扫描】
-3.将 F:/电影 拖入</t>
+3.将 F:/电影 拖入
+4、查看右下角任务状态
+5、点击扫描列表，可随时取消、可查看详情</t>
   </si>
   <si>
     <t>1.成功扫描并导入</t>
@@ -197,10 +196,19 @@
     <t>1.打开库【NFO】
 2.侧边栏所有视频-搜索：大小写、纯数字、纯英文、特殊符号（',%,?,.）
 3.侧边栏演员-搜索演员
-4.智能分类-搜索</t>
-  </si>
-  <si>
-    <t>2.所有均可正常搜索</t>
+4.智能分类-搜索
+5、搜索时，上下左右、回车、tab 均可使用</t>
+  </si>
+  <si>
+    <t>1、所有均可正常搜索
+2、回车后候选窗消失</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+优化影片显示的黑色底纹</t>
   </si>
   <si>
     <t>新增演员信息</t>
@@ -254,6 +262,11 @@
     <t>1.预览图、海报图、截图、演员头像都显示</t>
   </si>
   <si>
+    <t>1、截图任务表格的名称长度
+2、截图任务列表的日志UI：返回|日志
+3、取消所有和清除列表在空时不可用</t>
+  </si>
+  <si>
     <t>显示</t>
   </si>
   <si>
@@ -409,13 +422,113 @@
     <t>1.均正常</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>选项卡操作</t>
   </si>
   <si>
     <t>选项卡</t>
+  </si>
+  <si>
+    <t>1、打开侧边栏所有选项（9个）
+2、测试选项卡右键的所有功能</t>
+  </si>
+  <si>
+    <t>1、演员刷新功能
+2、选项卡右键菜单美化</t>
+  </si>
+  <si>
+    <t>选项卡跳转</t>
+  </si>
+  <si>
+    <t>1、打开演员，点击查看
+2、点击类别/系列/发行商/导演，点击不同种类
+3、打开详情页，重复步骤 1、2
+4、点击关联影片</t>
+  </si>
+  <si>
+    <t>1.均打开新选项卡显示</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>详情页</t>
+  </si>
+  <si>
+    <t>1、打开详情页后，左下角图片数目显示正确</t>
+  </si>
+  <si>
+    <t>1、截图数目未加载</t>
+  </si>
+  <si>
+    <t>选项卡功能</t>
+  </si>
+  <si>
+    <t>1、打开所有视频和我的收藏，点击编辑、修改图片显示模式、修改排序类型，点击筛选
+2、打开一个新的选项卡
+3、重启软件</t>
+  </si>
+  <si>
+    <t>1、发现每个选项卡都是对立的
+2、新的选项卡为最后一次设定的类型
+3、重启后仍未最后一次设定的类型</t>
+  </si>
+  <si>
+    <t>表格展示</t>
+  </si>
+  <si>
+    <t>1、切换显示类型为表格模式
+2、表格中所有的功能均可用</t>
+  </si>
+  <si>
+    <t>1、均正常</t>
+  </si>
+  <si>
+    <t>1、我的收藏未更新到其他图片模式及详情页
+2、双击显示详情
+3、编辑移到最右边
+4、不显示图片大小调节
+5、表格最小宽度</t>
+  </si>
+  <si>
+    <t>演员展示</t>
+  </si>
+  <si>
+    <t>1、打开演员，切换为表格模式
+2、表格中所有的功能均可用
+3、显示数目有效</t>
+  </si>
+  <si>
+    <t>1、我的收藏未更新到其他图片模式
+2、可修改所有演员属性
+3、表格最小宽度
+4、表格下去掉显示数目 switch</t>
+  </si>
+  <si>
+    <t>其他搜索</t>
+  </si>
+  <si>
+    <t>1、Ctrl+F 自动聚焦到当前的搜索栏
+2、演员、类别搜索</t>
+  </si>
+  <si>
+    <t>欢迎底片</t>
+  </si>
+  <si>
+    <t>1、欢迎页功能均正常</t>
+  </si>
+  <si>
+    <t>1、添加识别码功能</t>
+  </si>
+  <si>
+    <t>筛选</t>
+  </si>
+  <si>
+    <t>1、测试筛选功能</t>
+  </si>
+  <si>
+    <t>1、美化筛选
+2、筛选播放/不可播放显示提示
+3、筛选内容为空时筛选控件不可见</t>
   </si>
 </sst>
 </file>
@@ -428,7 +541,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,13 +563,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
@@ -936,10 +1042,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -948,33 +1054,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,109 +1093,106 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1094,6 +1200,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1103,7 +1212,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1489,8 +1598,8 @@
   <sheetPr/>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.35" outlineLevelCol="7"/>
@@ -1503,788 +1612,959 @@
     <col min="6" max="6" width="50.7777777777778" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.8981481481481" style="1" customWidth="1"/>
     <col min="8" max="8" width="43.4537037037037" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.25" customHeight="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="63.5" customHeight="1" spans="1:8">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" ht="96" customHeight="1" spans="1:8">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" ht="63.5" customHeight="1" spans="1:8">
-      <c r="A3" s="6">
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" ht="63.5" customHeight="1" spans="1:8">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" ht="113" customHeight="1" spans="1:8">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" ht="96.5" customHeight="1" spans="1:8">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" ht="113" customHeight="1" spans="1:8">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" ht="129.5" customHeight="1" spans="1:8">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" ht="113" customHeight="1" spans="1:8">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" ht="47" customHeight="1" spans="1:8">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" ht="63.5" customHeight="1" spans="1:8">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" ht="120" customHeight="1" spans="1:8">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" ht="63.5" customHeight="1" spans="1:8">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" ht="47" customHeight="1" spans="1:8">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" ht="113" customHeight="1" spans="1:8">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" ht="80" customHeight="1" spans="1:8">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="C19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" ht="63.5" customHeight="1" spans="1:8">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="C22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" ht="47" customHeight="1" spans="1:8">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" ht="47" customHeight="1" spans="1:8">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" ht="113" customHeight="1" spans="1:8">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="C25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" ht="96.5" customHeight="1" spans="1:8">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" ht="113" customHeight="1" spans="1:8">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" ht="129.5" customHeight="1" spans="1:8">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="C29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" ht="113" customHeight="1" spans="1:8">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" ht="47" customHeight="1" spans="1:8">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" ht="63.5" customHeight="1" spans="1:8">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" ht="96.5" customHeight="1" spans="1:8">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" ht="63.5" customHeight="1" spans="1:8">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" ht="47" customHeight="1" spans="1:8">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" ht="113" customHeight="1" spans="1:8">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" ht="80" customHeight="1" spans="1:8">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="B30" s="7">
         <v>2</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" ht="47" customHeight="1" spans="1:8">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" ht="47" customHeight="1" spans="1:8">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6">
-        <v>2</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="C30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6">
-        <v>2</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
+      <c r="E30" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" ht="90" customHeight="1" spans="1:6">
-      <c r="A31" s="6">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="32" ht="76" customHeight="1" spans="1:6">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="7">
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" ht="52" customHeight="1" spans="1:7">
-      <c r="A33" s="1">
-        <v>31</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" ht="52" customHeight="1" spans="1:6">
+      <c r="A33" s="7">
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" ht="30" customHeight="1" spans="1:4">
-      <c r="A34" s="1">
-        <v>32</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" ht="47" customHeight="1" spans="1:8">
+      <c r="A34" s="7">
+        <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" ht="30" customHeight="1"/>
-    <row r="36" ht="30" customHeight="1"/>
-    <row r="37" ht="30" customHeight="1"/>
-    <row r="38" ht="30" customHeight="1"/>
-    <row r="39" ht="30" customHeight="1"/>
-    <row r="40" ht="30" customHeight="1"/>
-    <row r="41" ht="30" customHeight="1"/>
-    <row r="42" ht="30" customHeight="1"/>
-    <row r="43" ht="30" customHeight="1"/>
+      <c r="G34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" ht="77" customHeight="1" spans="1:7">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" ht="30" customHeight="1" spans="1:8">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" ht="77" customHeight="1" spans="1:7">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" ht="78" customHeight="1" spans="1:8">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" ht="79" customHeight="1" spans="1:8">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" ht="93" customHeight="1" spans="1:6">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" ht="42" customHeight="1" spans="1:8">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" ht="78" customHeight="1" spans="1:8">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" ht="61" customHeight="1"/>
     <row r="44" ht="30" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:H33">
+  <autoFilter ref="A1:H34">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="G$1:G$1048576">
@@ -2298,17 +2578,17 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44:D1048576">
-      <formula1>"扫描,信息同步,升级,信息编辑,信息查看,其他,标记,搜索,演员,设置,插件,右键菜单"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9 G10 G11 G25 G26 G27 G28 G29 G30 G2:G8 G12:G24 G31:G1048576">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B32 B2:B9 B11:B24 B25:B31 B33:B1048576">
       <formula1>"5,4,3,2,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39 D2:D38 D40:D43">
       <formula1>"扫描,信息同步,升级,信息编辑,信息查看,其他,标记,搜索,演员,设置,插件,右键菜单,选项卡"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44:D1048576">
+      <formula1>"扫描,信息同步,升级,信息编辑,信息查看,其他,标记,搜索,演员,设置,插件,右键菜单"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Jvedio-WPF/Jvedio.Test/测试记录/Jvedio-5.4.xlsx
+++ b/Jvedio-WPF/Jvedio.Test/测试记录/Jvedio-5.4.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="用户测试用例" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">用户测试用例!$A$1:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">用户测试用例!$A$1:$H$47</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="148">
   <si>
     <t>用例编号</t>
   </si>
@@ -49,23 +49,25 @@
     <t>升级</t>
   </si>
   <si>
-    <t>1.删除目录 data
-2.解压 Files.7z 到软件目录（有密码）
+    <t>1.解压 Files.7z 到软件目录（有密码）
 3.启动 Jvedio</t>
   </si>
   <si>
     <t>1.Jvedio 正常迁移了数据</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>扫描电影</t>
   </si>
   <si>
     <t>扫描</t>
   </si>
   <si>
-    <t>1.重新生成 Jvedio
+    <t>1.关闭并打开 Jvedio
 2.新建库【测试扫描】
-3.将 F:/电影 拖入
+3.将 G:/电影 拖入
 4、查看右下角任务状态
 5、点击扫描列表，可随时取消、可查看详情</t>
   </si>
@@ -87,8 +89,7 @@
     <t>1.新建库【NFO】
 2.解压 NFO.7z 到软件目录（有密码）
 3.设置-扫描与导入-勾选【导入NFO】
-4.点击左下角设置-扫描-扫描多个文件夹，选择该 NFO 文件夹
-5.切换到预览图，右键选择【有图模式】</t>
+4.点击左下角设置-扫描-扫描多个文件夹，选择该 NFO 文件夹</t>
   </si>
   <si>
     <t>1.成功扫描并导入
@@ -98,7 +99,7 @@
     <t>启动时扫描</t>
   </si>
   <si>
-    <t>1.设置-扫描与导入-勾选启动时扫描
+    <t>1.设置-基本-勾选启动时扫描
 2.选择库【NFO】，添加目录
 3.删除NFO所有信息
 4.点击左上角返回，重新进入库 NFO
@@ -115,10 +116,45 @@
     <t>信息编辑</t>
   </si>
   <si>
-    <t>1.打开库【NFO】
-2.某个影片-右键-修改信息，删除演员、添加类别、标签等，保存
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.打开库【NFO】，打开详情页
+2.某个影片-右键-修改信息，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从上到下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并保存
 3.点击某个影片，进入详情页，点击右上角编辑-修改识别码、文件位置、添加演员
 4.在已有的标签、类别上修改，保存</t>
+    </r>
   </si>
   <si>
     <t>1.信息被成功修改并实时更新</t>
@@ -149,10 +185,10 @@
     <t>标记</t>
   </si>
   <si>
-    <t>1.打开库【测试扫描】
+    <t>1.打开库【测试扫描】，点击筛选器
 2.新增标记（香港电影-红-黄）
 3.右键选择所有，添加标记【香港电影】
-4.选择几个电影，右键添加标记【香港电影】
+4.选择几个电影，同时打开详情页，右键添加标记【香港电影】
 5.编辑香港电影标签，修改（香港电影2-绿-黑）
 6.新增标记（标记1-默认-默认）</t>
   </si>
@@ -161,7 +197,8 @@
 3.成功给所有影片添加标记
 4.被选择的电影取消了标记
 5.修改后，所有具有该标记的影片也被修改了
-6.按照默认方式添加了标记</t>
+6.按照默认方式添加了标记
+7、详情页的影片也同步修改</t>
   </si>
   <si>
     <t>标记筛选</t>
@@ -193,22 +230,20 @@
     <t>搜索</t>
   </si>
   <si>
-    <t>1.打开库【NFO】
-2.侧边栏所有视频-搜索：大小写、纯数字、纯英文、特殊符号（',%,?,.）
-3.侧边栏演员-搜索演员
-4.智能分类-搜索
-5、搜索时，上下左右、回车、tab 均可使用</t>
+    <t>1、打开库【NFO】
+2、侧边栏所有视频-搜索：大小写、纯数字、纯英文、特殊符号（',%,?,.）
+3、侧边栏演员-搜索演员
+4、智能分类-搜索
+5、搜索时，上下左右、回车、tab 均可使用
+6、点击侧边栏，搜索内容会被清空</t>
   </si>
   <si>
     <t>1、所有均可正常搜索
 2、回车后候选窗消失</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t xml:space="preserve">
-优化影片显示的黑色底纹</t>
+</t>
   </si>
   <si>
     <t>新增演员信息</t>
@@ -230,10 +265,10 @@
   </si>
   <si>
     <t>1.打开影片
-2.编辑，新增演员</t>
-  </si>
-  <si>
-    <t>1.可正常新增演员</t>
+2.编辑，新增刚才加的演员</t>
+  </si>
+  <si>
+    <t>1.可新加演员</t>
   </si>
   <si>
     <t>基本设置</t>
@@ -254,62 +289,29 @@
     <t>1.打开【NFO】
 2.切换为相对于影片路径
 3.搜索识别码 REBD-450
-4.查看图片信息是否完整
-5.新增演员【测试演员】，设置头像
-6.截图后查看所有视频</t>
+4.查看图片信息是否完整</t>
   </si>
   <si>
     <t>1.预览图、海报图、截图、演员头像都显示</t>
   </si>
   <si>
-    <t>1、截图任务表格的名称长度
-2、截图任务列表的日志UI：返回|日志
-3、取消所有和清除列表在空时不可用</t>
-  </si>
-  <si>
-    <t>显示</t>
-  </si>
-  <si>
-    <t>1.显示设置</t>
-  </si>
-  <si>
     <t>视频处理</t>
   </si>
   <si>
-    <t>1.设置图像为相对于影片路径
-2.添加 ffmpeg.exe 的位置，设置线程和截图数量
-3.选中当前页所有影视资源，右键截图
-4.生成 GIF</t>
+    <t>1、打开库【测试扫描】
+2、设置图像为相对于影片路径
+3、添加 ffmpeg.exe 的位置设置线程和截图数量
+4、选中当前页所有影视资源，右键截图
+5、生成 GIF</t>
   </si>
   <si>
     <t>1.可以正常截图</t>
   </si>
   <si>
-    <t>自定外观</t>
-  </si>
-  <si>
-    <t>1.修改各个选项</t>
-  </si>
-  <si>
     <t>重命名</t>
   </si>
   <si>
     <t>1.添加重命名规则</t>
-  </si>
-  <si>
-    <t>库</t>
-  </si>
-  <si>
-    <t>1.库设置</t>
-  </si>
-  <si>
-    <t>插件相关</t>
-  </si>
-  <si>
-    <t>插件</t>
-  </si>
-  <si>
-    <t>1.下载插件</t>
   </si>
   <si>
     <t>主界面影片右键</t>
@@ -350,24 +352,6 @@
     <t>1.可以正确新增识别码</t>
   </si>
   <si>
-    <t>语言</t>
-  </si>
-  <si>
-    <t>1.查看语言</t>
-  </si>
-  <si>
-    <t>1.语言都正确</t>
-  </si>
-  <si>
-    <t>外观、颜色</t>
-  </si>
-  <si>
-    <t>1.查看外观及颜色</t>
-  </si>
-  <si>
-    <t>1.语言都合适</t>
-  </si>
-  <si>
     <t>异常终止</t>
   </si>
   <si>
@@ -384,31 +368,6 @@
   </si>
   <si>
     <t>1.所有快捷键正常</t>
-  </si>
-  <si>
-    <t>插件可下载可配置</t>
-  </si>
-  <si>
-    <t>信息同步</t>
-  </si>
-  <si>
-    <t>1.打开插件
-2.可以显示插件列表
-3.同时下载多个插件
-4.设置里给所有插件新增网址，并测试</t>
-  </si>
-  <si>
-    <t>1.所有插件可下载
-2.所有插件可配置网址，且都能通过测试</t>
-  </si>
-  <si>
-    <t>插件可使用</t>
-  </si>
-  <si>
-    <t>1.使用插件进行信息同步</t>
-  </si>
-  <si>
-    <t>1.所有插件均可同步信息</t>
   </si>
   <si>
     <t>资源管理</t>
@@ -430,10 +389,6 @@
   <si>
     <t>1、打开侧边栏所有选项（9个）
 2、测试选项卡右键的所有功能</t>
-  </si>
-  <si>
-    <t>1、演员刷新功能
-2、选项卡右键菜单美化</t>
   </si>
   <si>
     <t>选项卡跳转</t>
@@ -448,16 +403,10 @@
     <t>1.均打开新选项卡显示</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>详情页</t>
   </si>
   <si>
     <t>1、打开详情页后，左下角图片数目显示正确</t>
-  </si>
-  <si>
-    <t>1、截图数目未加载</t>
   </si>
   <si>
     <t>选项卡功能</t>
@@ -483,13 +432,6 @@
     <t>1、均正常</t>
   </si>
   <si>
-    <t>1、我的收藏未更新到其他图片模式及详情页
-2、双击显示详情
-3、编辑移到最右边
-4、不显示图片大小调节
-5、表格最小宽度</t>
-  </si>
-  <si>
     <t>演员展示</t>
   </si>
   <si>
@@ -498,12 +440,6 @@
 3、显示数目有效</t>
   </si>
   <si>
-    <t>1、我的收藏未更新到其他图片模式
-2、可修改所有演员属性
-3、表格最小宽度
-4、表格下去掉显示数目 switch</t>
-  </si>
-  <si>
     <t>其他搜索</t>
   </si>
   <si>
@@ -517,31 +453,183 @@
     <t>1、欢迎页功能均正常</t>
   </si>
   <si>
-    <t>1、添加识别码功能</t>
-  </si>
-  <si>
     <t>筛选</t>
   </si>
   <si>
     <t>1、测试筛选功能</t>
   </si>
   <si>
-    <t>1、美化筛选
-2、筛选播放/不可播放显示提示
-3、筛选内容为空时筛选控件不可见</t>
+    <t>插件可下载可配置</t>
+  </si>
+  <si>
+    <t>信息同步</t>
+  </si>
+  <si>
+    <t>1.打开插件
+2.可以显示插件列表
+3.同时下载多个插件
+4.设置里给所有插件新增 2 个网址，并测试
+5、重启 APP，设置都能保存</t>
+  </si>
+  <si>
+    <t>1.所有插件可下载
+2.所有插件可配置网址，且都能通过测试</t>
+  </si>
+  <si>
+    <t>1、新增库【测试同步选项】
+2、打开设置，依次测试网络设置、同步选项、同步内容、代理设置</t>
+  </si>
+  <si>
+    <t>1、所有设置均生效</t>
+  </si>
+  <si>
+    <t>插件可使用</t>
+  </si>
+  <si>
+    <t>1.使用插件进行信息同步</t>
+  </si>
+  <si>
+    <t>1.所有插件均可同步信息</t>
+  </si>
+  <si>
+    <t>批量信息同步</t>
+  </si>
+  <si>
+    <t>1、新增库【测试同步】，导入 5 个识别码
+2、选择 5 个资源
+3、打开某个资源的详情页
+4、进行 5 个资源的信息同步</t>
+  </si>
+  <si>
+    <t>1、5 个资源成功同步
+2、详情页资源显示同步后的结果</t>
+  </si>
+  <si>
+    <t>多处信息同步</t>
+  </si>
+  <si>
+    <t>1、打开详情页
+2、右键同步
+3、再次同步</t>
+  </si>
+  <si>
+    <t>1、详情页资源同步
+2、提示该任务已存在</t>
+  </si>
+  <si>
+    <t>所有资源同步</t>
+  </si>
+  <si>
+    <t>1、右键——同步所有资源</t>
+  </si>
+  <si>
+    <t>1、所有资源同步成功</t>
+  </si>
+  <si>
+    <t>同步多个资源的间隔</t>
+  </si>
+  <si>
+    <t>1、选择 5 个资源进行同步
+2、打开下载任务列表</t>
+  </si>
+  <si>
+    <t>1、每个资源同步间隔为 3s，每次仅能同步 2 个资源</t>
+  </si>
+  <si>
+    <t>关闭程序</t>
+  </si>
+  <si>
+    <t>1、测试在下载、截图、扫描时关闭程序时</t>
+  </si>
+  <si>
+    <t>1、程序正常结束</t>
+  </si>
+  <si>
+    <t>数据库操作</t>
+  </si>
+  <si>
+    <t>1、删除不存在影片
+2、删除不位于库关联的影片</t>
+  </si>
+  <si>
+    <t>演员修改信息</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1、打开演员，查看演员所有影片
+2、打开详情页
+3、编辑演员信息，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从上到下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改演员</t>
+    </r>
+  </si>
+  <si>
+    <t>1、可正常修改演员信息</t>
+  </si>
+  <si>
+    <t>最小化</t>
+  </si>
+  <si>
+    <t>1、最小化后，对着图标右键
+2、双击</t>
+  </si>
+  <si>
+    <t>1、右键菜单都可用</t>
+  </si>
+  <si>
+    <t>详情页信息修改</t>
+  </si>
+  <si>
+    <t>1、打开详情页
+2、修改详情页内容</t>
+  </si>
+  <si>
+    <t>1、主界面同时修改</t>
+  </si>
+  <si>
+    <t>性能测试</t>
+  </si>
+  <si>
+    <t>1、查看 CPU、内存占用率</t>
+  </si>
+  <si>
+    <t>1、占用率不高</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,44 +645,23 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Microsoft YaHei"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Microsoft YaHei"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -610,14 +677,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -657,6 +716,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -707,11 +781,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -728,49 +835,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,121 +973,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,21 +1040,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,6 +1073,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,234 +1146,243 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1596,22 +1712,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.95" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.2222222222222" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.3055555555556" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.3055555555556" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.8981481481481" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50.7777777777778" style="2" customWidth="1"/>
-    <col min="6" max="6" width="50.7777777777778" style="3" customWidth="1"/>
+    <col min="5" max="5" width="50.7777777777778" style="3" customWidth="1"/>
+    <col min="6" max="6" width="50.7777777777778" style="4" customWidth="1"/>
     <col min="7" max="7" width="15.8981481481481" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.4537037037037" style="4" customWidth="1"/>
+    <col min="8" max="8" width="43.4537037037037" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -1648,20 +1764,22 @@
       <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" ht="96" customHeight="1" spans="1:8">
       <c r="A3" s="7">
@@ -1670,20 +1788,22 @@
       <c r="B3" s="7">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="F3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" ht="63.5" customHeight="1" spans="1:8">
       <c r="A4" s="7">
@@ -1692,20 +1812,22 @@
       <c r="B4" s="7">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" ht="113" customHeight="1" spans="1:8">
       <c r="A5" s="7">
@@ -1714,20 +1836,22 @@
       <c r="B5" s="7">
         <v>0</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="F5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" ht="96.5" customHeight="1" spans="1:8">
       <c r="A6" s="7">
@@ -1736,42 +1860,46 @@
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>21</v>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="113" customHeight="1" spans="1:8">
+      <c r="F6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="132" customHeight="1" spans="1:8">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="7">
         <v>0</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>24</v>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="F7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" ht="129.5" customHeight="1" spans="1:8">
       <c r="A8" s="7">
@@ -1780,42 +1908,46 @@
       <c r="B8" s="7">
         <v>0</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>28</v>
+      <c r="C8" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" ht="113" customHeight="1" spans="1:8">
+      <c r="F8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="154" customHeight="1" spans="1:8">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="7">
         <v>0</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>32</v>
+      <c r="C9" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
+      <c r="F9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" ht="47" customHeight="1" spans="1:8">
       <c r="A10" s="7">
@@ -1824,20 +1956,22 @@
       <c r="B10" s="7">
         <v>0</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>36</v>
+      <c r="C10" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="F10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" ht="63.5" customHeight="1" spans="1:8">
       <c r="A11" s="7">
@@ -1846,44 +1980,46 @@
       <c r="B11" s="7">
         <v>0</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>39</v>
+      <c r="C11" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" ht="120" customHeight="1" spans="1:8">
+      <c r="F11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" ht="139" customHeight="1" spans="1:8">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="7">
         <v>0</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>42</v>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="F12" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="G12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1894,20 +2030,22 @@
       <c r="B13" s="7">
         <v>0</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
+      <c r="G13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" ht="47" customHeight="1" spans="1:8">
       <c r="A14" s="7">
@@ -1916,42 +2054,46 @@
       <c r="B14" s="7">
         <v>0</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" ht="30.5" customHeight="1" spans="1:8">
+      <c r="G14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" ht="112" customHeight="1" spans="1:8">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="7">
         <v>0</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" ht="113" customHeight="1" spans="1:8">
       <c r="A16" s="7">
@@ -1960,634 +2102,789 @@
       <c r="B16" s="7">
         <v>1</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="9" t="s">
         <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" ht="30.5" customHeight="1" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" ht="108" customHeight="1" spans="1:8">
       <c r="A17" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>63</v>
+      <c r="C17" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" ht="80" customHeight="1" spans="1:8">
+      <c r="G17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" ht="30.5" customHeight="1" spans="1:8">
       <c r="A18" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" ht="47" customHeight="1" spans="1:8">
+      <c r="A19" s="7">
+        <v>22</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7">
-        <v>2</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" ht="30.5" customHeight="1" spans="1:8">
+      <c r="F19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" ht="47" customHeight="1" spans="1:8">
       <c r="A20" s="7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" s="7">
         <v>1</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
+      <c r="G20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" ht="30.5" customHeight="1" spans="1:8">
       <c r="A21" s="7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B21" s="7">
-        <v>2</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" ht="30.5" customHeight="1" spans="1:8">
       <c r="A22" s="7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" s="7">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" ht="47" customHeight="1" spans="1:8">
+      <c r="E22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" ht="30.5" customHeight="1" spans="1:8">
       <c r="A23" s="7">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A24" s="7">
+        <v>27</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" ht="52" customHeight="1" spans="1:8">
+      <c r="A25" s="7">
+        <v>28</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" ht="47" customHeight="1" spans="1:8">
+      <c r="A26" s="7">
+        <v>29</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" ht="77" customHeight="1" spans="1:8">
+      <c r="A27" s="7">
+        <v>30</v>
+      </c>
+      <c r="B27" s="11">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" ht="30" customHeight="1" spans="1:8">
+      <c r="A28" s="7">
+        <v>31</v>
+      </c>
+      <c r="B28" s="11">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" ht="77" customHeight="1" spans="1:8">
+      <c r="A29" s="7">
+        <v>32</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" ht="78" customHeight="1" spans="1:8">
+      <c r="A30" s="7">
+        <v>33</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" ht="79" customHeight="1" spans="1:8">
+      <c r="A31" s="7">
+        <v>34</v>
+      </c>
+      <c r="B31" s="11">
+        <v>0</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" ht="93" customHeight="1" spans="1:8">
+      <c r="A32" s="7">
+        <v>35</v>
+      </c>
+      <c r="B32" s="11">
         <v>1</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" ht="47" customHeight="1" spans="1:8">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="7">
+      <c r="C32" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" ht="42" customHeight="1" spans="1:8">
+      <c r="A33" s="7">
+        <v>36</v>
+      </c>
+      <c r="B33" s="11">
+        <v>2</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" ht="78" customHeight="1" spans="1:8">
+      <c r="A34" s="7">
+        <v>37</v>
+      </c>
+      <c r="B34" s="11">
         <v>1</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="7">
-        <v>0</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7">
-        <v>2</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A27" s="7">
+      <c r="C34" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" ht="90" customHeight="1" spans="1:8">
+      <c r="A35" s="7">
+        <v>38</v>
+      </c>
+      <c r="B35" s="11">
+        <v>0</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" ht="90" customHeight="1" spans="1:8">
+      <c r="A36" s="7">
+        <v>39</v>
+      </c>
+      <c r="B36" s="11">
+        <v>0</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" ht="76" customHeight="1" spans="1:8">
+      <c r="A37" s="7">
+        <v>40</v>
+      </c>
+      <c r="B37" s="11">
+        <v>0</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" ht="105" customHeight="1" spans="1:8">
+      <c r="A38" s="7">
+        <v>41</v>
+      </c>
+      <c r="B38" s="11">
+        <v>0</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" ht="64" customHeight="1" spans="1:8">
+      <c r="A39" s="7">
+        <v>42</v>
+      </c>
+      <c r="B39" s="11">
+        <v>0</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" ht="37" customHeight="1" spans="1:8">
+      <c r="A40" s="7">
+        <v>43</v>
+      </c>
+      <c r="B40" s="11">
+        <v>0</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" ht="48" customHeight="1" spans="1:8">
+      <c r="A41" s="7">
+        <v>44</v>
+      </c>
+      <c r="B41" s="11">
+        <v>0</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" ht="79" customHeight="1" spans="1:8">
+      <c r="A42" s="7">
+        <v>45</v>
+      </c>
+      <c r="B42" s="11">
+        <v>1</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" ht="70" customHeight="1" spans="1:8">
+      <c r="A43" s="7">
+        <v>46</v>
+      </c>
+      <c r="B43" s="11">
+        <v>3</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" ht="96" customHeight="1" spans="1:8">
+      <c r="A44" s="7">
+        <v>47</v>
+      </c>
+      <c r="B44" s="11">
+        <v>0</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" ht="51" customHeight="1" spans="1:8">
+      <c r="A45" s="7">
+        <v>48</v>
+      </c>
+      <c r="B45" s="11">
+        <v>4</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" ht="128" customHeight="1" spans="1:8">
+      <c r="A46" s="7">
+        <v>49</v>
+      </c>
+      <c r="B46" s="11">
+        <v>0</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
-        <v>2</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A28" s="7">
-        <v>27</v>
-      </c>
-      <c r="B28" s="7">
-        <v>2</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="7">
-        <v>0</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7">
-        <v>2</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" ht="90" customHeight="1" spans="1:6">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" ht="76" customHeight="1" spans="1:6">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" ht="52" customHeight="1" spans="1:6">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" ht="47" customHeight="1" spans="1:8">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" ht="77" customHeight="1" spans="1:7">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" ht="30" customHeight="1" spans="1:8">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" ht="77" customHeight="1" spans="1:7">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" ht="78" customHeight="1" spans="1:8">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" ht="79" customHeight="1" spans="1:8">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" ht="93" customHeight="1" spans="1:6">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" ht="42" customHeight="1" spans="1:8">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" ht="78" customHeight="1" spans="1:8">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" ht="61" customHeight="1"/>
-    <row r="44" ht="30" customHeight="1"/>
+      <c r="E46" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" ht="47" customHeight="1" spans="1:7">
+      <c r="A47" s="7">
+        <v>50</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H34">
+  <autoFilter ref="A1:H47">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="G$1:G$1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9 G10 G11 G25 G26 G27 G28 G29 G30 G2:G8 G12:G24 G31:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9 G10 G11 G16 G2:G8 G12:G15 G17:G47 G48:G1048576">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B32 B2:B9 B11:B24 B25:B31 B33:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B17 B18 B35 B36 B37 B2:B9 B11:B16 B19:B20 B21:B22 B23:B24 B25:B34 B38:B42 B43:B1048576">
       <formula1>"5,4,3,2,1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39 D2:D38 D40:D43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17 D18 D31 D35 D36 D37 D38 D39 D40 D41 D2:D16 D19:D22 D23:D24 D25:D30 D32:D34">
       <formula1>"扫描,信息同步,升级,信息编辑,信息查看,其他,标记,搜索,演员,设置,插件,右键菜单,选项卡"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42 D43:D1048576">
       <formula1>"扫描,信息同步,升级,信息编辑,信息查看,其他,标记,搜索,演员,设置,插件,右键菜单"</formula1>
     </dataValidation>
   </dataValidations>
